--- a/Task 19/solution_5305(Есть вопросы).xlsx
+++ b/Task 19/solution_5305(Есть вопросы).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Django\2022\preparation_for_the_EGE\Task 19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE85DC42-63E2-4C19-A3FF-0FE0AB5874BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5259E2-AA5F-4C9F-9721-1526E26178B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,26 +48,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,19 +66,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -367,53 +366,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <f>A2*80</f>
-        <v>80</v>
-      </c>
       <c r="C2">
-        <f>B2*2</f>
-        <v>160</v>
+        <f>B2+2</f>
+        <v>3</v>
       </c>
       <c r="D2">
-        <f>C2*2</f>
-        <v>320</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
+        <f>C2+2</f>
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>IF(D2&lt;80,D2*(INT(80/D2)+1),D2+10)</f>
+        <v>85</v>
+      </c>
+      <c r="F2">
+        <f>D2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>C2+10</f>
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">IF(D3&lt;80,D3*(INT(80/D3)+1),D3+10)</f>
+        <v>91</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="1">D3</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f>C2*(INT(80/C2))</f>
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>B2+10</f>
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <f>C5+2</f>
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>C5+10</f>
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>C5*(INT(80/C5))</f>
+        <v>77</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>B2*(INT(80/B2) - 1)</f>
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <f>C8+2</f>
+        <v>81</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>C8+10</f>
+        <v>89</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>C8*(INT(80/C8) + 1)</f>
+        <v>158</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:F10">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>166</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>166</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>